--- a/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>XPON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +712,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>2200</v>
       </c>
       <c r="F8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,26 +744,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,26 +776,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,25 +824,26 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,14 +901,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,14 +932,14 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -927,8 +950,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +963,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,26 +993,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1041,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1025,8 +1059,8 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1037,26 +1071,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,26 +1103,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,26 +1135,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,13 +1167,16 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1141,8 +1187,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1231,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1263,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1423,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1373,8 +1443,8 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1385,26 +1455,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1519,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1618,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
         <v>10400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,20 +1680,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,20 +1712,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,20 +1744,23 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1776,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E46" s="3">
         <v>15500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1808,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,8 +1840,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1744,11 +1852,11 @@
         <v>4300</v>
       </c>
       <c r="E48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1968,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2032,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E54" s="3">
         <v>19900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8700</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2094,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2124,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2002,11 +2136,11 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,20 +2156,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2188,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2089,11 +2232,11 @@
         <v>1300</v>
       </c>
       <c r="E61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,20 +2252,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2380,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2554,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6800</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2682,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E76" s="3">
         <v>14400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2783,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2645,13 +2844,13 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,26 +3021,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,25 +3069,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,25 +3163,28 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,26 +3337,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>12900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3123,8 +3369,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,25 +3401,28 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>9600</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,141 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,31 +807,37 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,13 +850,15 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -839,8 +866,8 @@
       <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="G12" s="3">
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -848,8 +875,8 @@
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -857,8 +884,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,13 +922,19 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -904,25 +943,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,8 +980,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -944,8 +989,8 @@
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -953,8 +998,14 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +1015,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1107,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1062,11 +1129,11 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1074,40 +1141,52 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1115,74 +1194,86 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1190,11 +1281,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1202,8 +1293,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1331,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1559,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1446,11 +1585,11 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1458,40 +1597,52 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,26 +1790,28 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1824,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,26 +1862,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,26 +1900,32 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F44" s="3">
         <v>5000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,26 +1938,32 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,26 +1976,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F46" s="3">
         <v>13900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>15500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,8 +2014,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1843,26 +2052,32 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E48" s="3">
         <v>4300</v>
       </c>
       <c r="F48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +2090,14 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2128,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2204,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1980,16 +2219,16 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2242,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,26 +2280,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F54" s="3">
         <v>18300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>19900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2318,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,26 +2354,28 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,26 +2388,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,26 +2426,32 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,26 +2464,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,26 +2502,32 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2255,26 +2540,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2578,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,26 +2692,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2730,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,26 +2898,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2936,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,26 +3050,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F76" s="3">
         <v>13100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +3088,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3227,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2847,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3261,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3451,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,19 +3509,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -3090,11 +3531,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3543,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,19 +3619,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -3186,11 +3645,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3198,8 +3657,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3825,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>12900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3901,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>9600</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,35 +723,38 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1400</v>
       </c>
       <c r="F8" s="3">
         <v>1400</v>
       </c>
       <c r="G8" s="3">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="H8" s="3">
         <v>2200</v>
       </c>
       <c r="I8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J8" s="3">
         <v>4500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,35 +764,38 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="3">
         <v>1100</v>
       </c>
       <c r="F9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,26 +817,26 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>400</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,22 +878,22 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,17 +945,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -949,14 +969,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -986,14 +1009,14 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1043,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,35 +1082,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,13 +1142,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1135,8 +1169,8 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1147,35 +1181,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1200,20 +1240,20 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,35 +1263,38 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +1304,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1272,11 +1318,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1287,8 +1333,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,35 +1386,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,35 +1427,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,13 +1632,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1591,8 +1661,8 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1603,35 +1673,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,35 +1755,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,40 +1796,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,29 +1958,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,29 +1999,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,16 +2163,19 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E48" s="3">
         <v>4100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4300</v>
       </c>
       <c r="F48" s="3">
         <v>4300</v>
@@ -2076,11 +2184,11 @@
         <v>4300</v>
       </c>
       <c r="H48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I48" s="3">
         <v>4100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2225,14 +2345,14 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E54" s="3">
         <v>15900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,29 +2525,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,8 +2566,11 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2441,20 +2578,20 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,29 +2648,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1300</v>
       </c>
       <c r="G61" s="3">
         <v>1300</v>
       </c>
       <c r="H61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E76" s="3">
         <v>9900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3321,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,35 +3367,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,13 +3427,14 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3250,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3671,38 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3520,25 +3741,25 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,8 +3852,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3634,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,8 +4074,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3843,23 +4089,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>12900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,34 +4156,37 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9600</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XPON_QTR_FIN.xlsx
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
